--- a/UPH/test.xlsx
+++ b/UPH/test.xlsx
@@ -36,9 +36,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,7 +352,7 @@
   <dimension ref="A1:K253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,6 +360,7 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6961,7 +6959,7 @@
         <v>1248.9670699999999</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E253" si="6">(0.95*B195)+(0.05*C195)</f>
+        <f t="shared" ref="E195:E252" si="6">(0.95*B195)+(0.05*C195)</f>
         <v>1412.5408534999999</v>
       </c>
       <c r="G195" s="1">
